--- a/VBH/S.xlsx
+++ b/VBH/S.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hillel_07_2022\VBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>First Name</t>
   </si>
@@ -442,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,4 +561,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>